--- a/mid/dim/基础资源.xlsx
+++ b/mid/dim/基础资源.xlsx
@@ -212,6 +212,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>郑州</t>
     </r>
     <r>
@@ -248,6 +253,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>郑州</t>
     </r>
     <r>
@@ -2337,10 +2347,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2361,7 +2371,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -2376,21 +2393,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -2399,7 +2401,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2407,7 +2409,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2422,15 +2424,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2444,23 +2462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2474,21 +2478,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -2497,9 +2486,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2514,7 +2524,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2526,25 +2608,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2556,7 +2626,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2568,37 +2650,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2610,37 +2686,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2652,49 +2704,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,50 +2715,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2763,6 +2729,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2783,16 +2764,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2805,6 +2797,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2813,10 +2823,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2825,133 +2835,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3283,10 +3293,10 @@
   <sheetPr/>
   <dimension ref="A1:AS141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="AS7" sqref="AS7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3844,7 +3854,7 @@
       <c r="AQ5" s="1"/>
       <c r="AR5" s="1"/>
       <c r="AS5" s="1">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" ht="15" spans="1:45">
@@ -3943,7 +3953,7 @@
       <c r="AQ6" s="1"/>
       <c r="AR6" s="1"/>
       <c r="AS6" s="1">
-        <v>62</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="15" spans="1:45">

--- a/mid/dim/基础资源.xlsx
+++ b/mid/dim/基础资源.xlsx
@@ -10,7 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$AU$141</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1250,7 +1250,17 @@
     <t>2015.10.19-自业主委员会与物业服务企业签订物业管理服务合同终止</t>
   </si>
   <si>
-    <t>郑州国际新城三期十号院</t>
+    <r>
+      <t>郑州国际新城三期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t>A</t>
+    </r>
   </si>
   <si>
     <t>国际新城三期A</t>
@@ -1268,7 +1278,7 @@
     <t>2020-11-10</t>
   </si>
   <si>
-    <t>郑州国际新城三期12号院</t>
+    <t>郑州国际新城三期B</t>
   </si>
   <si>
     <t>国际新城三期B</t>
@@ -1286,7 +1296,7 @@
     <t>2020-12-30</t>
   </si>
   <si>
-    <t>郑州国际新城三期9号院</t>
+    <t>郑州国际新城三期C</t>
   </si>
   <si>
     <t>国际新城三期C</t>
@@ -1307,7 +1317,7 @@
     <t>2020-11-30</t>
   </si>
   <si>
-    <t>郑州国际新城三期15号院</t>
+    <t>郑州国际新城三期D</t>
   </si>
   <si>
     <t>国际新城三期D</t>
@@ -2371,16 +2381,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2394,14 +2404,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2409,31 +2412,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2449,6 +2443,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2456,15 +2458,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2479,18 +2503,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2501,17 +2517,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2524,7 +2534,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2536,7 +2624,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2548,19 +2648,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2572,19 +2684,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2596,115 +2714,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2715,6 +2725,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2729,6 +2754,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2748,17 +2784,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2780,17 +2810,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -2806,15 +2825,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2823,10 +2833,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2835,143 +2845,144 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3293,15 +3304,15 @@
   <sheetPr/>
   <dimension ref="A1:AS141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="AS7" sqref="AS7"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="23.375" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="50.25" customWidth="1"/>
@@ -10025,7 +10036,7 @@
       </c>
     </row>
     <row r="71" ht="15" spans="1:45">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="2" t="s">
         <v>395</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -10106,7 +10117,7 @@
       <c r="AS71" s="1"/>
     </row>
     <row r="72" ht="15" spans="1:45">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="4" t="s">
         <v>401</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -10185,7 +10196,7 @@
       <c r="AS72" s="1"/>
     </row>
     <row r="73" ht="15" spans="1:45">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="2" t="s">
         <v>407</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -10264,7 +10275,7 @@
       <c r="AS73" s="1"/>
     </row>
     <row r="74" ht="15" spans="1:45">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="2" t="s">
         <v>414</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -16422,6 +16433,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AU141">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
